--- a/Individual+School+Analysis.xlsx
+++ b/Individual+School+Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hzhan\Desktop\Graduate-School-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88030BF5-2D38-46FF-866D-CB7D712935DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FE8D49-04DA-4DF9-A3ED-A4839311AEB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9470" yWindow="680" windowWidth="12600" windowHeight="9680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Summary" sheetId="4" r:id="rId1"/>
@@ -20,12 +20,22 @@
     <sheet name="Backward AIC" sheetId="2" r:id="rId5"/>
     <sheet name="Backward BIC" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="175">
   <si>
     <t>Table 3: Individual School Analysis</t>
   </si>
@@ -592,6 +602,12 @@
   </si>
   <si>
     <t>Average Precol GPA</t>
+  </si>
+  <si>
+    <t>Citzenship-Outside US not China</t>
+  </si>
+  <si>
+    <t>Citzenship-Asian American</t>
   </si>
 </sst>
 </file>
@@ -759,7 +775,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -784,6 +800,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -792,12 +817,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1101,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E6D760-3753-419D-BE13-F62363CE95AE}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A18" zoomScale="68" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -1122,41 +1141,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="14"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="9" t="s">
@@ -1191,12 +1210,12 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="10" t="s">
         <v>87</v>
       </c>
@@ -1229,7 +1248,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="9">
         <v>1.6424430633536</v>
       </c>
@@ -1262,12 +1281,12 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="9">
         <v>191</v>
       </c>
@@ -1300,12 +1319,12 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="18" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="9">
         <v>128</v>
       </c>
@@ -1338,12 +1357,12 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="18"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="9">
         <v>0.82758620689655205</v>
       </c>
@@ -1356,10 +1375,10 @@
       <c r="E12" s="9">
         <v>0.60486891385767805</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="14">
         <v>1</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="14">
         <v>0.84210526315789502</v>
       </c>
       <c r="H12" s="9">
@@ -1376,7 +1395,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="18"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="9">
         <v>0.37833315897528902</v>
       </c>
@@ -1389,10 +1408,10 @@
       <c r="E13" s="9">
         <v>0.48933722612375202</v>
       </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
         <v>0.36953702147663198</v>
       </c>
       <c r="H13" s="9">
@@ -1409,15 +1428,15 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17"/>
+      <c r="A15" s="15"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="17"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
@@ -1450,12 +1469,12 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="18"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="9">
         <v>22</v>
       </c>
@@ -1488,12 +1507,12 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="18"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="9">
         <v>16</v>
       </c>
@@ -1526,15 +1545,15 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="17"/>
+      <c r="A22" s="15"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="17"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="9">
         <v>6</v>
       </c>
@@ -1567,12 +1586,12 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="18"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="9">
         <v>55</v>
       </c>
@@ -1605,12 +1624,12 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="18"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="9">
         <v>11</v>
       </c>
@@ -1643,12 +1662,12 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="17"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="9">
         <v>0</v>
       </c>
@@ -1678,12 +1697,12 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="18"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="9">
         <v>22</v>
       </c>
@@ -1716,12 +1735,12 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="18"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="9">
         <v>9</v>
       </c>
@@ -1754,12 +1773,12 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="18"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="9">
         <v>4</v>
       </c>
@@ -1792,12 +1811,12 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="18"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="9">
         <v>3</v>
       </c>
@@ -1830,12 +1849,12 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="18"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="9">
         <v>11</v>
       </c>
@@ -1868,12 +1887,12 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="18"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="9">
         <v>150</v>
       </c>
@@ -1906,12 +1925,12 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="18"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="10" t="s">
         <v>67</v>
       </c>
@@ -1944,7 +1963,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="18"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="9">
         <v>0.84332744417169103</v>
       </c>
@@ -1977,12 +1996,12 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="18"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="9">
         <v>0.29935143780110202</v>
       </c>
@@ -2015,7 +2034,7 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="18"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="9">
         <v>2.45951206434383</v>
       </c>
@@ -2048,12 +2067,12 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="18"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="9">
         <v>1.0210635291350401</v>
       </c>
@@ -2086,7 +2105,7 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="18"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="9">
         <v>1.49197026526113</v>
       </c>
@@ -2119,12 +2138,12 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="18"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="10" t="s">
         <v>46</v>
       </c>
@@ -2157,7 +2176,7 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="18"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="9">
         <v>0.19199825878253499</v>
       </c>
@@ -2190,12 +2209,12 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="18"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="9">
         <v>2.1943573667711599E-2</v>
       </c>
@@ -2228,7 +2247,7 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="18"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="9">
         <v>0.14672949252235601</v>
       </c>
@@ -2261,12 +2280,12 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="18"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="9">
         <v>1.0595611285266499E-2</v>
       </c>
@@ -2299,7 +2318,7 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="18"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="9">
         <v>7.9443560794741505E-2</v>
       </c>
@@ -2332,12 +2351,12 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="18"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="9">
         <v>0.47863425261682402</v>
       </c>
@@ -2370,7 +2389,7 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="18"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="9">
         <v>0.75894628490998295</v>
       </c>
@@ -2404,25 +2423,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B2:C2"/>
@@ -2434,6 +2434,25 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2443,7 +2462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2416723C-8E09-4984-9729-8A6CF7F6E843}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -2456,11 +2475,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
@@ -2477,10 +2496,10 @@
       <c r="A3" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2488,22 +2507,22 @@
       <c r="A4" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="9" t="s">
@@ -2696,10 +2715,10 @@
       <c r="A27" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="20" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2707,50 +2726,50 @@
       <c r="A28" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="20"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="20"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="20"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="20"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="10" t="s">
@@ -2814,8 +2833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA78499-C348-45D7-9790-249EE4ED507C}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2955,8 +2974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -2974,44 +2993,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="25" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="25" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="26"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2"/>
@@ -3135,7 +3154,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="5"/>
@@ -3154,7 +3173,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="B10" s="1">
         <v>-1.3636600000000001</v>
@@ -3496,8 +3515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -3510,44 +3529,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="25" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="25" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="26"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2"/>
@@ -4012,8 +4031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A2" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -4027,44 +4046,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="25" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="25" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="26"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2"/>
